--- a/biology/Médecine/Kyste_(médecine)/Kyste_(médecine).xlsx
+++ b/biology/Médecine/Kyste_(médecine)/Kyste_(médecine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kyste_(m%C3%A9decine)</t>
+          <t>Kyste_(médecine)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En médecine, un kyste est une poche close ayant une membrane distincte et se développant anormalement dans une cavité ou structure du corps. Il peut contenir de l'air, des liquides, ou d'autres matériaux, notamment des organismes parasites « enkystés » sous forme active à reproduction lente ou sous forme inactive de « spore » (sporozoïte).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kyste_(m%C3%A9decine)</t>
+          <t>Kyste_(médecine)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans leur très grande majorité, les kystes sont bénins. C'est le cas des kystes biliaires simples (dans le foie), des kystes rénaux (sauf en cas de polykystose rénale héréditaire), des kystes mammaires. Leur contenu est purement liquidien, et leur taille varie de quelques millimètres à plusieurs centimètres.
 D'autres kystes peuvent être liés à un développement tumoral bénin ou malin ; c'est le cas de ceux qui touchent les ovaires ou le pancréas par exemple. Parfois, c'est par la pression exercée sur les organes voisins qu'ils sont nocifs.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kyste_(m%C3%A9decine)</t>
+          <t>Kyste_(médecine)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Types</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>De nombreux organes sont susceptibles de développer des kystes :
 Kyste ovarien
@@ -582,7 +598,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kyste_(m%C3%A9decine)</t>
+          <t>Kyste_(médecine)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -600,15 +616,87 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le problème essentiel est la distinction entre un kyste bénin et un cancer.
-Imagerie
-En échographie, un kyste se présente sous la forme d'une cavité totalement anéchogène (ne renvoyant pas d'échos, et apparaissant donc en noir sur l'écran), de forme arrondie le plus souvent, entourée d'une paroi très fine, voire invisible. Une caractéristique spécifique est la visualisation d'un « renforcement postérieur des échos » : l'accumulation d'ultrasons en arrière du kyste (qui l'ont traversé sans être réfléchis) est responsable de la formation d'une large bande qui apparaîtra plus blanche que les tissus avoisinants. Cet aspect typique permet, lors de la découverte fortuite d'un kyste sur un rein par exemple, d'avoir une certitude diagnostique et d'affirmer le caractère bénin de cette anomalie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Kyste_(médecine)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kyste_(m%C3%A9decine)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Imagerie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En échographie, un kyste se présente sous la forme d'une cavité totalement anéchogène (ne renvoyant pas d'échos, et apparaissant donc en noir sur l'écran), de forme arrondie le plus souvent, entourée d'une paroi très fine, voire invisible. Une caractéristique spécifique est la visualisation d'un « renforcement postérieur des échos » : l'accumulation d'ultrasons en arrière du kyste (qui l'ont traversé sans être réfléchis) est responsable de la formation d'une large bande qui apparaîtra plus blanche que les tissus avoisinants. Cet aspect typique permet, lors de la découverte fortuite d'un kyste sur un rein par exemple, d'avoir une certitude diagnostique et d'affirmer le caractère bénin de cette anomalie.
 Sur une tomodensitométrie (scanner), le kyste apparaîtra sous la forme d'une « boule » homogène, à paroi souvent invisible, dont la densité moyenne (exprimée en unités Hounsfield, HU) est celle d'un liquide, donc proche de 0 HU (entre 0 et 10 le plus souvent).
 En imagerie par résonance magnétique (IRM), le kyste apparaît bien délimité, en hyposignal T1 et en fort hypersignal T2.
-Ponction
-La ponction du kyste, faite à l'aveugle lorsqu'il peut être palpé, ou sous imagerie, permet d'analyser la constitution du liquide et de rechercher des cellules suspectes de cancer.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Kyste_(médecine)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kyste_(m%C3%A9decine)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ponction</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La ponction du kyste, faite à l'aveugle lorsqu'il peut être palpé, ou sous imagerie, permet d'analyser la constitution du liquide et de rechercher des cellules suspectes de cancer.
 </t>
         </is>
       </c>
